--- a/Errores solucion.xlsx
+++ b/Errores solucion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="14145" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>Ticket</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>v32</t>
+  </si>
+  <si>
+    <t>v33</t>
   </si>
   <si>
     <t>Ej</t>
@@ -94,8 +97,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -107,22 +110,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,11 +117,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,22 +132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,22 +146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,25 +162,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,16 +239,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,85 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,97 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +466,59 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,62 +566,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,127 +592,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,18 +1045,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,127 +1075,151 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>78891</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>78892</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>78893</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>78895</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>78898</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>78899</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>78900</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1200,135 +1227,156 @@
         <v>78901</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>79050</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>79447</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>79448</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>79449</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>79487</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>79488</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Errores solucion.xlsx
+++ b/Errores solucion.xlsx
@@ -13,8 +13,213 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>cadiaz</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>En el formato de un reporte, cuando se añadia un campo este por defaut tenia una medida de 263 cm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>En las formas aunque no necesitabamos el menu, por default tenia un item para abrir el Acerda de</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Cuando su utilizaba la presentacion preliminar de controles captura en las formas, y no tenian informacion, mostraba el error de las dll, MSSQL32.DLL y IDAPI32.DLL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Desconosiamo como encriptar las contraseñas en base de datos igual que en la aplicacion, se resolvio al conocer la fnPassword de base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Se trata de la tardanza al abrir intelisis en el primer intento por la cantidad de usuarios que hay en base de datos, problema resuelto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Era solo una duda para saber la version de borland o si habia algo diferente con la version 3100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Cuando se exporta a excel y tenia un formato, por ejemplo: tipoMonetario, no respetaba el simbolo de $</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Duda sobre el codigo puesto en el xpDespuesAfectar en la parte de CDF, problema resuelto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Cuando usabamos el tipo icono en las formas, hacia muchas mas operaciones de las esperadas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Cuando se desplazaba el menu para tener mas espacio y querer recuperarlo ya no se podia, problema solucionado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Al abrir una forma con estilo icono so mustra informacion que en la v29 si, lo muestra cuando se refresca o se usa un filtro, tiene relacion con el ticket 79050</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>en el archivo intelisis.ini se agrego el codigo:
+[Intelisis]
+Excel Omitir Apostrofe=S
+pero reacciono igual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Cuando crea una accion en una forma para usarlo en el menu, tambien se activa la barra de herramientas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Mas bien una pregunta, dado que a los usuarios se les dificulta mas el manejo de las ventanas en la version 5000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Al modificar un campo no actualiza sus campos relacionados</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>En las formas que de Cxc y Cxp por ejemplo, en el detalle cuando deleccionas un movimiento no refresca los otros campos que debe actualizar, haciendo necesario una insercion manual en la forma y estar expuesto a los errores que un usuario pueda comenter</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
   <si>
     <t>Ticket</t>
   </si>
@@ -34,7 +239,7 @@
     <t>v33</t>
   </si>
   <si>
-    <t>Ej</t>
+    <t>v34</t>
   </si>
   <si>
     <t>SDK Tamaño del campo</t>
@@ -49,9 +254,6 @@
     <t>El menu Acerca de</t>
   </si>
   <si>
-    <t>DM0235</t>
-  </si>
-  <si>
     <t>DLL del borland</t>
   </si>
   <si>
@@ -88,7 +290,10 @@
     <t>Quitar la ventana principal</t>
   </si>
   <si>
-    <t>Actualizar campos relacionados</t>
+    <t>Actualizar campos en catalogos</t>
+  </si>
+  <si>
+    <t>Refrescar los campos al modificar otro</t>
   </si>
 </sst>
 </file>
@@ -101,7 +306,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +315,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,20 +337,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -146,9 +399,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,48 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,20 +452,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -275,49 +485,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,127 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,33 +676,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,13 +694,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +748,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,13 +781,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,127 +802,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1079,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>78891</v>
       </c>
@@ -1096,6 +1306,9 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1118,16 +1331,16 @@
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>78893</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1141,53 +1354,62 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>78895</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>78898</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>78899</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1201,13 +1423,16 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>78900</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1221,30 +1446,39 @@
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>78901</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>79050</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -1258,13 +1492,16 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>79447</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1278,13 +1515,16 @@
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>79448</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1298,13 +1538,16 @@
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>79449</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1318,13 +1561,16 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>79487</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1338,49 +1584,82 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>79488</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>79507</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>79510</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Errores solucion.xlsx
+++ b/Errores solucion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="7425"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="29">
   <si>
     <t>Ticket</t>
   </si>
@@ -242,6 +242,12 @@
     <t>v34</t>
   </si>
   <si>
+    <t>v35</t>
+  </si>
+  <si>
+    <t>v36</t>
+  </si>
+  <si>
     <t>SDK Tamaño del campo</t>
   </si>
   <si>
@@ -294,6 +300,12 @@
   </si>
   <si>
     <t>Refrescar los campos al modificar otro</t>
+  </si>
+  <si>
+    <t>tabualr y enter</t>
+  </si>
+  <si>
+    <t>Cierra excel</t>
   </si>
 </sst>
 </file>
@@ -315,6 +327,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -323,6 +342,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -330,8 +357,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,56 +443,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,52 +458,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,43 +497,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,139 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,21 +688,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -718,17 +715,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,11 +739,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,27 +788,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,127 +814,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,18 +1267,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,373 +1300,488 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>78891</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>78892</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>78893</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>78895</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>78898</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>78899</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>78900</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>78901</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>79050</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>79447</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>79448</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>79449</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>79487</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>79488</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>79507</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>79510</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Errores solucion.xlsx
+++ b/Errores solucion.xlsx
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
   <si>
     <t>Ticket</t>
   </si>
@@ -248,6 +248,9 @@
     <t>v36</t>
   </si>
   <si>
+    <t>v37</t>
+  </si>
+  <si>
     <t>SDK Tamaño del campo</t>
   </si>
   <si>
@@ -257,55 +260,109 @@
     <t>V</t>
   </si>
   <si>
+    <t>Texto</t>
+  </si>
+  <si>
     <t>El menu Acerca de</t>
   </si>
   <si>
+    <t>NumPequeño</t>
+  </si>
+  <si>
     <t>DLL del borland</t>
   </si>
   <si>
+    <t>Nukerico</t>
+  </si>
+  <si>
     <t>Contraseñas Intelisis</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>NumIntegro</t>
+  </si>
+  <si>
     <t>Primer Acceso</t>
   </si>
   <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>NumFlotante</t>
+  </si>
+  <si>
     <t>Salida Formato Excel</t>
   </si>
   <si>
+    <t>NumBCD</t>
+  </si>
+  <si>
     <t>Configuracion CFD</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
     <t>Icono incremento consultas</t>
   </si>
   <si>
+    <t>Hora</t>
+  </si>
+  <si>
     <t>Colapsa el menu principal</t>
   </si>
   <si>
+    <t>FechaHora</t>
+  </si>
+  <si>
     <t>Formas icono no muestran informacion</t>
   </si>
   <si>
+    <t>Bytes</t>
+  </si>
+  <si>
     <t>Excel apostrofe</t>
   </si>
   <si>
+    <t>AutoInc</t>
+  </si>
+  <si>
     <t>Barra de herramientas siempre visible</t>
   </si>
   <si>
+    <t>Grafico</t>
+  </si>
+  <si>
     <t>Quitar la ventana principal</t>
   </si>
   <si>
+    <t>FmtMemo</t>
+  </si>
+  <si>
     <t>Actualizar campos en catalogos</t>
   </si>
   <si>
+    <t>PdxOle</t>
+  </si>
+  <si>
     <t>Refrescar los campos al modificar otro</t>
   </si>
   <si>
+    <t>dBaseOle</t>
+  </si>
+  <si>
     <t>tabualr y enter</t>
   </si>
   <si>
+    <t>Binario</t>
+  </si>
+  <si>
     <t>Cierra excel</t>
+  </si>
+  <si>
+    <t>Columas vacias al exportar a excel</t>
   </si>
 </sst>
 </file>
@@ -328,7 +385,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,14 +423,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,7 +498,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -375,7 +507,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,88 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -497,187 +554,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +745,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,6 +785,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,68 +845,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,127 +871,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1278,7 +1335,7 @@
     <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,482 +1363,601 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>78891</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>78892</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>78893</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>78895</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>78898</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>78899</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>78900</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>78901</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>79050</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>79447</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>79448</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>79449</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>79487</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>79488</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>79507</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>79510</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
